--- a/pidis/expdata/10011.xlsx
+++ b/pidis/expdata/10011.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80A9902-11E2-AC4D-9713-B35D0824E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="15">
   <si>
     <t>Elab</t>
   </si>
@@ -47,12 +57,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Aperp(stat)_u</t>
-  </si>
-  <si>
-    <t>Aperp(syst)_c</t>
-  </si>
-  <si>
     <t>set*</t>
   </si>
   <si>
@@ -67,11 +71,23 @@
   <si>
     <t>JLabHA(E06014)</t>
   </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst_c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -89,9 +105,8 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +138,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,6 +149,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,21 +419,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="1027" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,19 +453,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>4.74</v>
       </c>
@@ -458,10 +482,10 @@
         <v>2.0379999999999998</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
         <v>-2E-3</v>
@@ -473,13 +497,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I2" s="3">
+        <f>F2*0.014</f>
+        <v>-2.8E-5</v>
+      </c>
+      <c r="J2" s="3">
+        <f>MAX(H2^2-I2^2,0)^0.5</f>
+        <v>2.9998693304875801E-3</v>
+      </c>
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>4.74</v>
       </c>
@@ -490,10 +522,10 @@
         <v>2.347</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>-1E-3</v>
@@ -505,13 +537,21 @@
         <v>2E-3</v>
       </c>
       <c r="I3" s="3">
+        <f t="shared" ref="I3:I27" si="0">F3*0.014</f>
+        <v>-1.4E-5</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J27" si="1">MAX(H3^2-I3^2,0)^0.5</f>
+        <v>1.9999509993997352E-3</v>
+      </c>
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>4.74</v>
       </c>
@@ -522,10 +562,10 @@
         <v>2.6389999999999998</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3">
         <v>-1.0999999999999999E-2</v>
@@ -537,13 +577,21 @@
         <v>2E-3</v>
       </c>
       <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.54E-4</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9940621855900082E-3</v>
+      </c>
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4.74</v>
       </c>
@@ -554,10 +602,10 @@
         <v>2.915</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <v>-3.0000000000000001E-3</v>
@@ -569,13 +617,21 @@
         <v>2E-3</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.2000000000000004E-5</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9995589513690263E-3</v>
+      </c>
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4.74</v>
       </c>
@@ -586,10 +642,10 @@
         <v>3.1760000000000002</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3">
         <v>-5.0000000000000001E-3</v>
@@ -601,13 +657,21 @@
         <v>1E-3</v>
       </c>
       <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000007E-5</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9754699137434132E-4</v>
+      </c>
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4.74</v>
       </c>
@@ -618,10 +682,10 @@
         <v>3.4249999999999998</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
         <v>-6.0000000000000001E-3</v>
@@ -633,13 +697,21 @@
         <v>1E-3</v>
       </c>
       <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>-8.4000000000000009E-5</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9646575455456573E-4</v>
+      </c>
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>4.74</v>
       </c>
@@ -650,10 +722,10 @@
         <v>3.6619999999999999</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <v>-8.0000000000000002E-3</v>
@@ -665,13 +737,21 @@
         <v>2E-3</v>
       </c>
       <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.12E-4</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9968615375133051E-3</v>
+      </c>
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4.74</v>
       </c>
@@ -682,10 +762,10 @@
         <v>3.8860000000000001</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
         <v>5.0000000000000001E-3</v>
@@ -697,13 +777,21 @@
         <v>2E-3</v>
       </c>
       <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9987746246137908E-3</v>
+      </c>
+      <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>4.74</v>
       </c>
@@ -714,10 +802,10 @@
         <v>4.0990000000000002</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="3">
         <v>-4.0000000000000001E-3</v>
@@ -729,13 +817,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.5999999999999999E-5</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9994772877953253E-3</v>
+      </c>
+      <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>4.74</v>
       </c>
@@ -746,10 +842,10 @@
         <v>4.3070000000000004</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3">
         <v>-1.4E-2</v>
@@ -761,13 +857,21 @@
         <v>2E-3</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.9600000000000002E-4</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.990372829396543E-3</v>
+      </c>
+      <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>4.74</v>
       </c>
@@ -778,10 +882,10 @@
         <v>4.5039999999999996</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3">
         <v>-2.5000000000000001E-2</v>
@@ -793,13 +897,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.5000000000000005E-4</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9877349568717057E-3</v>
+      </c>
+      <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4.74</v>
       </c>
@@ -810,10 +922,10 @@
         <v>4.694</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3">
         <v>5.0000000000000001E-3</v>
@@ -825,13 +937,21 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>5.999591652771045E-3</v>
+      </c>
+      <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>4.74</v>
       </c>
@@ -842,10 +962,10 @@
         <v>4.8760000000000003</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
         <v>-4.9000000000000002E-2</v>
@@ -857,13 +977,21 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>-6.8600000000000009E-4</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9606546620316805E-3</v>
+      </c>
+      <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>5.89</v>
       </c>
@@ -874,10 +1002,10 @@
         <v>2.6259999999999999</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3">
         <v>0.01</v>
@@ -889,13 +1017,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9967315528755655E-3</v>
+      </c>
+      <c r="K15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>5.89</v>
       </c>
@@ -906,10 +1042,10 @@
         <v>3.032</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
         <v>4.0000000000000001E-3</v>
@@ -921,13 +1057,21 @@
         <v>1E-3</v>
       </c>
       <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9843076875665254E-4</v>
+      </c>
+      <c r="K16" s="3">
         <v>2</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>5.89</v>
       </c>
@@ -938,10 +1082,10 @@
         <v>3.4209999999999998</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3">
         <v>-1E-3</v>
@@ -953,13 +1097,21 @@
         <v>1E-3</v>
       </c>
       <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.4E-5</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9990199519752929E-4</v>
+      </c>
+      <c r="K17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>5.89</v>
       </c>
@@ -970,10 +1122,10 @@
         <v>3.802</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3">
         <v>-4.0000000000000001E-3</v>
@@ -985,13 +1137,21 @@
         <v>1E-3</v>
       </c>
       <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.5999999999999999E-5</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9843076875665254E-4</v>
+      </c>
+      <c r="K18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>5.89</v>
       </c>
@@ -1002,10 +1162,10 @@
         <v>4.1689999999999996</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1017,13 +1177,21 @@
         <v>1E-3</v>
       </c>
       <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>5.89</v>
       </c>
@@ -1034,10 +1202,10 @@
         <v>4.5140000000000002</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1049,13 +1217,21 @@
         <v>1E-3</v>
       </c>
       <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K20" s="3">
         <v>2</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>5.89</v>
       </c>
@@ -1066,10 +1242,10 @@
         <v>4.8479999999999999</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3">
         <v>3.0000000000000001E-3</v>
@@ -1081,13 +1257,21 @@
         <v>1E-3</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000004E-5</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9911761069455688E-4</v>
+      </c>
+      <c r="K21" s="3">
         <v>2</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>5.89</v>
       </c>
@@ -1098,10 +1282,10 @@
         <v>5.1760000000000002</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3">
         <v>-4.0000000000000001E-3</v>
@@ -1113,13 +1297,21 @@
         <v>1E-3</v>
       </c>
       <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.5999999999999999E-5</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>9.9843076875665254E-4</v>
+      </c>
+      <c r="K22" s="3">
         <v>2</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>5.89</v>
       </c>
@@ -1130,10 +1322,10 @@
         <v>5.4859999999999998</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" s="3">
         <v>-2E-3</v>
@@ -1145,13 +1337,21 @@
         <v>2E-3</v>
       </c>
       <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.8E-5</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9998039903950586E-3</v>
+      </c>
+      <c r="K23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>5.89</v>
       </c>
@@ -1162,10 +1362,10 @@
         <v>5.7770000000000001</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3">
         <v>-4.0000000000000001E-3</v>
@@ -1177,13 +1377,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.5999999999999999E-5</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9994772877953253E-3</v>
+      </c>
+      <c r="K24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>5.89</v>
       </c>
@@ -1194,10 +1402,10 @@
         <v>6.0590000000000002</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1209,13 +1417,21 @@
         <v>2E-3</v>
       </c>
       <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9987746246137908E-3</v>
+      </c>
+      <c r="K25" s="3">
         <v>2</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>5.89</v>
       </c>
@@ -1226,10 +1442,10 @@
         <v>6.3250000000000002</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3">
         <v>-4.3999999999999997E-2</v>
@@ -1241,13 +1457,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>-6.1600000000000001E-4</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9522833906490053E-3</v>
+      </c>
+      <c r="K26" s="3">
         <v>2</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>5.89</v>
       </c>
@@ -1258,10 +1482,10 @@
         <v>6.585</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3">
         <v>-8.0000000000000002E-3</v>
@@ -1273,10 +1497,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.12E-4</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9991039426486592E-3</v>
+      </c>
+      <c r="K27" s="3">
         <v>2</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>12</v>
+      <c r="L27" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
